--- a/biology/Neurosciences/Sulcus_limitans/Sulcus_limitans.xlsx
+++ b/biology/Neurosciences/Sulcus_limitans/Sulcus_limitans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sulcus limitans, situé dans le plancher du IVe ventricule du système ventriculaire du cerveau, est une frontière qui sépare les noyaux des nerfs neurovégétatifs  crâniens (médians) des noyaux sensitifs(latéraux) dans la partie supérieure de la fosse rhomboïde.
